--- a/Assets/StaticData/Excel/Quest.xlsx
+++ b/Assets/StaticData/Excel/Quest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QuestType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,11 +102,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>갔노라! 잡았노라! 얻었노라!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>거창한 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speechRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000, 20001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,8 +158,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -457,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -473,38 +478,42 @@
     <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -512,54 +521,60 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3">
+        <v>30000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StaticData/Excel/Quest.xlsx
+++ b/Assets/StaticData/Excel/Quest.xlsx
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Collecting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +111,10 @@
   </si>
   <si>
     <t>20000, 20001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +465,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -486,28 +486,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -536,10 +536,10 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
         <v>3</v>
@@ -550,28 +550,28 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3">
         <v>30000</v>

--- a/Assets/StaticData/Excel/Quest.xlsx
+++ b/Assets/StaticData/Excel/Quest.xlsx
@@ -7,26 +7,108 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Quest" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antecedentQuest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardItems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardItemsCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫 사냥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000, 1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>questType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>description</t>
+    <t>QuestType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000, 1001, 1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 1, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speechRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000, 20001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -34,87 +116,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QuestType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>antecedentQuest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000, 1001, 1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>targetDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 1, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardItems</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000, 1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardItemsCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거창한 시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speechRef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000, 20001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +162,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -464,21 +466,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -486,28 +486,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -515,34 +515,34 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -550,25 +550,25 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>23</v>
@@ -580,32 +580,5 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>